--- a/data/trans_camb/IP2002-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP2002-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 8,59</t>
+          <t>-6,28; 9,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,06; -0,36</t>
+          <t>-12,09; -0,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,64; -1,43</t>
+          <t>-13,08; -1,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 10,56</t>
+          <t>-2,85; 10,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 6,51</t>
+          <t>-7,61; 5,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 1,15</t>
+          <t>-10,2; 1,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 7,99</t>
+          <t>-2,42; 7,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 1,5</t>
+          <t>-8,43; 0,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; -1,94</t>
+          <t>-10,19; -1,57</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,75; 154,04</t>
+          <t>-52,68; 173,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-95,19; 25,41</t>
+          <t>-93,93; 18,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -3,37</t>
+          <t>-100,0; 24,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 237,55</t>
+          <t>-34,54; 234,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,25; 199,4</t>
+          <t>-81,84; 136,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 91,28</t>
+          <t>-100,0; 87,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,42; 146,57</t>
+          <t>-26,28; 140,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,72; 35,89</t>
+          <t>-77,81; 18,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-93,25; -19,47</t>
+          <t>-93,09; -14,86</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,39</t>
+          <t>-3,07; 2,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 0,43</t>
+          <t>-5,07; 0,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -0,54</t>
+          <t>-5,6; -0,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 0,2</t>
+          <t>-5,16; 0,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 2,12</t>
+          <t>-3,43; 2,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,67</t>
+          <t>-5,05; 0,57</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 0,76</t>
+          <t>-3,39; 0,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,63</t>
+          <t>-3,44; 0,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; -0,83</t>
+          <t>-4,7; -0,72</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,36; 38,39</t>
+          <t>-36,08; 38,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-55,78; 7,85</t>
+          <t>-58,42; 4,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,69; -7,01</t>
+          <t>-64,19; -6,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,93; 4,33</t>
+          <t>-57,81; 8,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,86; 33,56</t>
+          <t>-38,36; 46,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 13,91</t>
+          <t>-54,6; 11,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,45; 12,75</t>
+          <t>-40,06; 8,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-40,66; 10,07</t>
+          <t>-41,44; 9,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,68; -11,55</t>
+          <t>-54,03; -10,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 3,51</t>
+          <t>-5,35; 3,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 3,61</t>
+          <t>-5,46; 3,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 6,61</t>
+          <t>-3,42; 6,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 1,6</t>
+          <t>-6,85; 1,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 2,12</t>
+          <t>-5,87; 2,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 8,44</t>
+          <t>-1,88; 8,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 1,64</t>
+          <t>-4,42; 1,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 1,57</t>
+          <t>-4,4; 1,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 6,25</t>
+          <t>-1,21; 5,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-63,76; 103,54</t>
+          <t>-66,83; 103,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-66,53; 128,78</t>
+          <t>-69,67; 94,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 188,08</t>
+          <t>-42,07; 158,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-77,0; 45,76</t>
+          <t>-78,71; 49,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,9; 63,78</t>
+          <t>-71,66; 73,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-30,15; 223,55</t>
+          <t>-27,99; 202,74</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-62,2; 39,98</t>
+          <t>-58,24; 31,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,64; 38,96</t>
+          <t>-58,37; 29,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 151,82</t>
+          <t>-16,35; 130,33</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 1,91</t>
+          <t>-2,58; 1,84</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; -0,32</t>
+          <t>-4,44; -0,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,48; -0,38</t>
+          <t>-4,7; -0,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 0,52</t>
+          <t>-3,58; 0,6</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,35</t>
+          <t>-3,16; 1,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,26</t>
+          <t>-3,4; 1,24</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 0,5</t>
+          <t>-2,46; 0,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,23; -0,31</t>
+          <t>-3,2; -0,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,35; -0,09</t>
+          <t>-3,36; -0,25</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-30,06; 32,45</t>
+          <t>-31,45; 30,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-53,67; -4,31</t>
+          <t>-52,68; -5,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-53,54; -5,93</t>
+          <t>-55,91; -5,02</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 9,07</t>
+          <t>-43,2; 12,3</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 24,29</t>
+          <t>-38,17; 23,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 21,45</t>
+          <t>-40,81; 20,8</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 7,65</t>
+          <t>-31,79; 12,26</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-40,41; -3,56</t>
+          <t>-40,54; -3,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-43,43; -1,38</t>
+          <t>-42,3; -3,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP2002-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP2002-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,20 +531,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores a los que les han extraido dientes por caries o por otro motivo</t>
+          <t>Menores a los que les han extraído dientes por caries o por otro motivo</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-6,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,03</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-3,79</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,88</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 10,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,31; 5,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,45; 0,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,33; 9,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,93; 0,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; -1,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 8,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 0,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,26; -2,09</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,88%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,68%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-77,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-72,3%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,37; 249,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,65; 143,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 86,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,89; 182,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,4; 27,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 8,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,01; 142,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,91; 16,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,84; -9,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,14</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-3,22</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,79</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,82</t>
+          <t>-2,74</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 9,78</t>
+          <t>-5,34; 0,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,09; -0,26</t>
+          <t>-3,5; 2,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,08; -1,91</t>
+          <t>-4,93; 0,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 10,85</t>
+          <t>-3,5; 2,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 5,78</t>
+          <t>-4,92; 0,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 1,24</t>
+          <t>-5,93; -0,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 7,92</t>
+          <t>-3,39; 0,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 0,74</t>
+          <t>-3,38; 0,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,19; -1,57</t>
+          <t>-4,62; -0,69</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>-32,88%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-67,69%</t>
+          <t>-7,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-77,2%</t>
+          <t>-29,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,88%</t>
+          <t>-6,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-16,79%</t>
+          <t>-30,84%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-64,26%</t>
+          <t>-43,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>32,11%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-46,6%</t>
+          <t>-19,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-71,55%</t>
+          <t>-36,51%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,68; 173,84</t>
+          <t>-57,26; 4,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-93,93; 18,72</t>
+          <t>-39,06; 44,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 24,27</t>
+          <t>-54,59; 16,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 234,89</t>
+          <t>-38,36; 37,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-81,84; 136,98</t>
+          <t>-55,33; 5,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 87,37</t>
+          <t>-66,49; -5,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 140,41</t>
+          <t>-39,63; 9,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-77,81; 18,51</t>
+          <t>-39,51; 6,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-93,09; -14,86</t>
+          <t>-55,52; -10,49</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,69</t>
+          <t>2,67</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,4</t>
+          <t>-6,76; 1,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 0,23</t>
+          <t>-5,99; 2,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; -0,66</t>
+          <t>-1,33; 8,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 0,51</t>
+          <t>-4,82; 3,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,6</t>
+          <t>-5,59; 2,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 0,57</t>
+          <t>-2,4; 7,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 0,52</t>
+          <t>-4,44; 1,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 0,56</t>
+          <t>-4,4; 1,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,7; -0,72</t>
+          <t>-0,72; 6,59</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,66%</t>
+          <t>-38,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-30,84%</t>
+          <t>-28,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-43,29%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-32,88%</t>
+          <t>-13,4%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,67%</t>
+          <t>-19,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-27,9%</t>
+          <t>42,07%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-19,16%</t>
+          <t>-26,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-19,5%</t>
+          <t>-24,4%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-35,87%</t>
+          <t>45,49%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 38,23</t>
+          <t>-76,51; 41,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,42; 4,5</t>
+          <t>-72,08; 79,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-64,19; -6,12</t>
+          <t>-18,7; 205,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-57,81; 8,65</t>
+          <t>-62,43; 106,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-38,36; 46,73</t>
+          <t>-69,95; 80,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,6; 11,37</t>
+          <t>-33,98; 233,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 8,56</t>
+          <t>-61,05; 30,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-41,44; 9,56</t>
+          <t>-59,0; 34,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,03; -10,27</t>
+          <t>-12,08; 156,6</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-2,27</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>-1,71</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-1,54</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-1,43</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>-1,75</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 3,71</t>
+          <t>-3,76; 0,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 3,14</t>
+          <t>-3,15; 1,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 6,08</t>
+          <t>-3,46; 1,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 1,48</t>
+          <t>-2,56; 1,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-5,87; 2,59</t>
+          <t>-4,54; -0,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 8,32</t>
+          <t>-4,4; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 1,33</t>
+          <t>-2,54; 0,54</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 1,24</t>
+          <t>-3,25; -0,23</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,67</t>
+          <t>-3,53; -0,31</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,4%</t>
+          <t>-22,12%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,98%</t>
+          <t>-12,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>-16,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-38,4%</t>
+          <t>-4,87%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-28,6%</t>
+          <t>-34,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>51,04%</t>
+          <t>-31,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-26,21%</t>
+          <t>-13,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-24,4%</t>
+          <t>-23,74%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>40,34%</t>
+          <t>-24,34%</t>
         </is>
       </c>
     </row>
@@ -1439,282 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,83; 103,17</t>
+          <t>-45,78; 13,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,67; 94,05</t>
+          <t>-39,31; 21,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,07; 158,82</t>
+          <t>-41,16; 19,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-78,71; 49,04</t>
+          <t>-30,82; 32,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,66; 73,2</t>
+          <t>-54,42; -6,51</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 202,74</t>
+          <t>-53,13; 0,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 31,98</t>
+          <t>-32,17; 8,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-58,37; 29,93</t>
+          <t>-40,86; -3,07</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,35; 130,33</t>
+          <t>-42,82; -4,01</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-0,35</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-2,47</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,41</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-0,89</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>-1,71</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>-1,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 1,84</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; -0,35</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; -0,39</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>-3,58; 0,6</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 1,35</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>-3,4; 1,24</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>-2,46; 0,73</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>-3,2; -0,24</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>-3,36; -0,25</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-4,85%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-33,93%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-33,14%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-22,12%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-12,54%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>-14,99%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>-13,13%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>-23,7%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>-24,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-31,45; 30,14</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-52,68; -5,18</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-55,91; -5,02</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>-43,2; 12,3</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>-38,17; 23,81</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>-40,81; 20,8</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>-31,79; 12,26</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>-40,54; -3,21</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>-42,3; -3,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
